--- a/COMP-2825-Comp-Architecture/day6/TestALUS.xlsx
+++ b/COMP-2825-Comp-Architecture/day6/TestALUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\OneDrive - BCIT\Desktop\term4\COMP-2825-Comp-Architecture\day6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9128689-6CE8-4611-B0D1-A4BFADDE78E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signed" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>F0</t>
   </si>
@@ -66,12 +72,60 @@
   <si>
     <t>Res(Binary)</t>
   </si>
+  <si>
+    <t>1101 0111</t>
+  </si>
+  <si>
+    <t>1110 0000</t>
+  </si>
+  <si>
+    <t>0001 1111</t>
+  </si>
+  <si>
+    <t>1111 1111</t>
+  </si>
+  <si>
+    <t>0000 0000</t>
+  </si>
+  <si>
+    <t>0010 1000</t>
+  </si>
+  <si>
+    <t>1011 0111</t>
+  </si>
+  <si>
+    <t>1011 1000</t>
+  </si>
+  <si>
+    <t>1101 1000</t>
+  </si>
+  <si>
+    <t>1110 0001</t>
+  </si>
+  <si>
+    <t>0000 1001</t>
+  </si>
+  <si>
+    <t>1101 1111</t>
+  </si>
+  <si>
+    <t>0010 1001</t>
+  </si>
+  <si>
+    <t>1100 0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111 0111 </t>
+  </si>
+  <si>
+    <t>0000 0001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +353,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -329,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -369,7 +423,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -403,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -437,9 +492,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,26 +668,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" customWidth="1"/>
-    <col min="23" max="23" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="24.88671875" customWidth="1"/>
+    <col min="23" max="23" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" thickBot="1"/>
-    <row r="2" spans="1:24">
+    <row r="1" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
@@ -643,7 +699,7 @@
       </c>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" thickBot="1">
+    <row r="3" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N3" s="13" t="s">
         <v>6</v>
       </c>
@@ -655,7 +711,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -664,7 +720,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -679,7 +735,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -713,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -743,10 +799,14 @@
       <c r="U7" s="9">
         <v>0</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="V7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -776,10 +836,14 @@
       <c r="U8" s="9">
         <v>0</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="V8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -809,10 +873,14 @@
       <c r="U9" s="9">
         <v>0</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="V9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -842,10 +910,14 @@
       <c r="U10" s="9">
         <v>0</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="V10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -875,10 +947,14 @@
       <c r="U11" s="9">
         <v>0</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="V11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="9">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -908,10 +984,14 @@
       <c r="U12" s="9">
         <v>1</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="V12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="9">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -941,10 +1021,14 @@
       <c r="U13" s="9">
         <v>1</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="V13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="9">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -974,10 +1058,14 @@
       <c r="U14" s="9">
         <v>1</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="V14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="9">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -1007,10 +1095,14 @@
       <c r="U15" s="9">
         <v>1</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="V15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -1040,10 +1132,14 @@
       <c r="U16" s="9">
         <v>0</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="V16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="9">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -1073,10 +1169,14 @@
       <c r="U17" s="9">
         <v>1</v>
       </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="V17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -1106,10 +1206,14 @@
       <c r="U18" s="9">
         <v>0</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="V18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="9">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -1139,10 +1243,14 @@
       <c r="U19" s="9">
         <v>0</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="V19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19" s="9">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -1172,10 +1280,14 @@
       <c r="U20" s="9">
         <v>0</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="V20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -1205,10 +1317,14 @@
       <c r="U21" s="9">
         <v>1</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="V21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -1238,10 +1354,14 @@
       <c r="U22" s="9">
         <v>0</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="V22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -1256,7 +1376,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -1271,7 +1391,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -1286,7 +1406,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -1301,7 +1421,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -1316,7 +1436,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -1325,7 +1445,7 @@
         <v>00011000</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -1334,7 +1454,7 @@
         <v>00011001</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -1343,7 +1463,7 @@
         <v>00011010</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -1352,7 +1472,7 @@
         <v>00011011</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -1361,7 +1481,7 @@
         <v>00011100</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -1370,7 +1490,7 @@
         <v>00011101</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -1379,7 +1499,7 @@
         <v>00011110</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -1388,7 +1508,7 @@
         <v>00011111</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -1397,7 +1517,7 @@
         <v>00100000</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -1406,7 +1526,7 @@
         <v>00100001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -1415,7 +1535,7 @@
         <v>00100010</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -1424,7 +1544,7 @@
         <v>00100011</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -1433,7 +1553,7 @@
         <v>00100100</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -1442,7 +1562,7 @@
         <v>00100101</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>38</v>
       </c>
@@ -1451,7 +1571,7 @@
         <v>00100110</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>39</v>
       </c>
@@ -1460,7 +1580,7 @@
         <v>00100111</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>40</v>
       </c>
@@ -1469,7 +1589,7 @@
         <v>00101000</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>41</v>
       </c>
@@ -1478,7 +1598,7 @@
         <v>00101001</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -1487,7 +1607,7 @@
         <v>00101010</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>43</v>
       </c>
@@ -1496,7 +1616,7 @@
         <v>00101011</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>44</v>
       </c>
@@ -1505,7 +1625,7 @@
         <v>00101100</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -1514,7 +1634,7 @@
         <v>00101101</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>46</v>
       </c>
@@ -1523,7 +1643,7 @@
         <v>00101110</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>47</v>
       </c>
@@ -1532,7 +1652,7 @@
         <v>00101111</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>48</v>
       </c>
@@ -1541,7 +1661,7 @@
         <v>00110000</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>49</v>
       </c>
@@ -1550,7 +1670,7 @@
         <v>00110001</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>50</v>
       </c>
@@ -1559,7 +1679,7 @@
         <v>00110010</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>51</v>
       </c>
@@ -1568,7 +1688,7 @@
         <v>00110011</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>52</v>
       </c>
@@ -1577,7 +1697,7 @@
         <v>00110100</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>53</v>
       </c>
@@ -1586,7 +1706,7 @@
         <v>00110101</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>54</v>
       </c>
@@ -1595,7 +1715,7 @@
         <v>00110110</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>55</v>
       </c>
@@ -1604,7 +1724,7 @@
         <v>00110111</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>56</v>
       </c>
@@ -1613,7 +1733,7 @@
         <v>00111000</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>57</v>
       </c>
@@ -1622,7 +1742,7 @@
         <v>00111001</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>58</v>
       </c>
@@ -1631,7 +1751,7 @@
         <v>00111010</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>59</v>
       </c>
@@ -1640,7 +1760,7 @@
         <v>00111011</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>60</v>
       </c>
@@ -1649,7 +1769,7 @@
         <v>00111100</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>61</v>
       </c>
@@ -1658,7 +1778,7 @@
         <v>00111101</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>62</v>
       </c>
@@ -1667,7 +1787,7 @@
         <v>00111110</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>63</v>
       </c>
@@ -1676,7 +1796,7 @@
         <v>00111111</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>64</v>
       </c>
@@ -1685,7 +1805,7 @@
         <v>01000000</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>65</v>
       </c>
@@ -1694,7 +1814,7 @@
         <v>01000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>66</v>
       </c>
@@ -1703,7 +1823,7 @@
         <v>01000010</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>67</v>
       </c>
@@ -1712,7 +1832,7 @@
         <v>01000011</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>68</v>
       </c>
@@ -1721,7 +1841,7 @@
         <v>01000100</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>69</v>
       </c>
@@ -1730,7 +1850,7 @@
         <v>01000101</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>70</v>
       </c>
@@ -1739,7 +1859,7 @@
         <v>01000110</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>71</v>
       </c>
@@ -1748,7 +1868,7 @@
         <v>01000111</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>72</v>
       </c>
@@ -1757,7 +1877,7 @@
         <v>01001000</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>73</v>
       </c>
@@ -1766,7 +1886,7 @@
         <v>01001001</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>74</v>
       </c>
@@ -1775,7 +1895,7 @@
         <v>01001010</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>75</v>
       </c>
@@ -1784,7 +1904,7 @@
         <v>01001011</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>76</v>
       </c>
@@ -1793,7 +1913,7 @@
         <v>01001100</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>77</v>
       </c>
@@ -1802,7 +1922,7 @@
         <v>01001101</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>78</v>
       </c>
@@ -1811,7 +1931,7 @@
         <v>01001110</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>79</v>
       </c>
@@ -1820,7 +1940,7 @@
         <v>01001111</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>80</v>
       </c>
@@ -1829,7 +1949,7 @@
         <v>01010000</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>81</v>
       </c>
@@ -1838,7 +1958,7 @@
         <v>01010001</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>82</v>
       </c>
@@ -1847,7 +1967,7 @@
         <v>01010010</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>83</v>
       </c>
@@ -1856,7 +1976,7 @@
         <v>01010011</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>84</v>
       </c>
@@ -1865,7 +1985,7 @@
         <v>01010100</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>85</v>
       </c>
@@ -1874,7 +1994,7 @@
         <v>01010101</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>86</v>
       </c>
@@ -1883,7 +2003,7 @@
         <v>01010110</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>87</v>
       </c>
@@ -1892,7 +2012,7 @@
         <v>01010111</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>88</v>
       </c>
@@ -1901,7 +2021,7 @@
         <v>01011000</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>89</v>
       </c>
@@ -1910,7 +2030,7 @@
         <v>01011001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>90</v>
       </c>
@@ -1919,7 +2039,7 @@
         <v>01011010</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>91</v>
       </c>
@@ -1928,7 +2048,7 @@
         <v>01011011</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>92</v>
       </c>
@@ -1937,7 +2057,7 @@
         <v>01011100</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>93</v>
       </c>
@@ -1946,7 +2066,7 @@
         <v>01011101</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>94</v>
       </c>
@@ -1955,7 +2075,7 @@
         <v>01011110</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>95</v>
       </c>
@@ -1964,7 +2084,7 @@
         <v>01011111</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>96</v>
       </c>
@@ -1973,7 +2093,7 @@
         <v>01100000</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>97</v>
       </c>
@@ -1982,7 +2102,7 @@
         <v>01100001</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>98</v>
       </c>
@@ -1991,7 +2111,7 @@
         <v>01100010</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>99</v>
       </c>
@@ -2000,7 +2120,7 @@
         <v>01100011</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>100</v>
       </c>
@@ -2009,7 +2129,7 @@
         <v>01100100</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>101</v>
       </c>
@@ -2018,7 +2138,7 @@
         <v>01100101</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>102</v>
       </c>
@@ -2027,7 +2147,7 @@
         <v>01100110</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>103</v>
       </c>
@@ -2036,7 +2156,7 @@
         <v>01100111</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>104</v>
       </c>
@@ -2045,7 +2165,7 @@
         <v>01101000</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>105</v>
       </c>
@@ -2054,7 +2174,7 @@
         <v>01101001</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>106</v>
       </c>
@@ -2063,7 +2183,7 @@
         <v>01101010</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>107</v>
       </c>
@@ -2072,7 +2192,7 @@
         <v>01101011</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>108</v>
       </c>
@@ -2081,7 +2201,7 @@
         <v>01101100</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>109</v>
       </c>
@@ -2090,7 +2210,7 @@
         <v>01101101</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>110</v>
       </c>
@@ -2099,7 +2219,7 @@
         <v>01101110</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>111</v>
       </c>
@@ -2108,7 +2228,7 @@
         <v>01101111</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>112</v>
       </c>
@@ -2117,7 +2237,7 @@
         <v>01110000</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>113</v>
       </c>
@@ -2126,7 +2246,7 @@
         <v>01110001</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>114</v>
       </c>
@@ -2135,7 +2255,7 @@
         <v>01110010</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>115</v>
       </c>
@@ -2144,7 +2264,7 @@
         <v>01110011</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>116</v>
       </c>
@@ -2153,7 +2273,7 @@
         <v>01110100</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>117</v>
       </c>
@@ -2162,7 +2282,7 @@
         <v>01110101</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>118</v>
       </c>
@@ -2171,7 +2291,7 @@
         <v>01110110</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>119</v>
       </c>
@@ -2180,7 +2300,7 @@
         <v>01110111</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>120</v>
       </c>
@@ -2189,7 +2309,7 @@
         <v>01111000</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>121</v>
       </c>
@@ -2198,7 +2318,7 @@
         <v>01111001</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>122</v>
       </c>
@@ -2207,7 +2327,7 @@
         <v>01111010</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>123</v>
       </c>
@@ -2216,7 +2336,7 @@
         <v>01111011</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>124</v>
       </c>
@@ -2225,7 +2345,7 @@
         <v>01111100</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>125</v>
       </c>
@@ -2234,7 +2354,7 @@
         <v>01111101</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>126</v>
       </c>
@@ -2243,7 +2363,7 @@
         <v>01111110</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>127</v>
       </c>
@@ -2252,7 +2372,7 @@
         <v>01111111</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>128</v>
       </c>
@@ -2264,7 +2384,7 @@
         <v>-128</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>129</v>
       </c>
@@ -2276,7 +2396,7 @@
         <v>-127</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>130</v>
       </c>
@@ -2288,7 +2408,7 @@
         <v>-126</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>131</v>
       </c>
@@ -2300,7 +2420,7 @@
         <v>-125</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>132</v>
       </c>
@@ -2312,7 +2432,7 @@
         <v>-124</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>133</v>
       </c>
@@ -2324,7 +2444,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>134</v>
       </c>
@@ -2336,7 +2456,7 @@
         <v>-122</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>135</v>
       </c>
@@ -2348,7 +2468,7 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>136</v>
       </c>
@@ -2360,7 +2480,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>137</v>
       </c>
@@ -2372,7 +2492,7 @@
         <v>-119</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>138</v>
       </c>
@@ -2384,7 +2504,7 @@
         <v>-118</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>139</v>
       </c>
@@ -2396,7 +2516,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>140</v>
       </c>
@@ -2408,7 +2528,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>141</v>
       </c>
@@ -2420,7 +2540,7 @@
         <v>-115</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>142</v>
       </c>
@@ -2432,7 +2552,7 @@
         <v>-114</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>143</v>
       </c>
@@ -2444,7 +2564,7 @@
         <v>-113</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>144</v>
       </c>
@@ -2456,7 +2576,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>145</v>
       </c>
@@ -2468,7 +2588,7 @@
         <v>-111</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>146</v>
       </c>
@@ -2480,7 +2600,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>147</v>
       </c>
@@ -2492,7 +2612,7 @@
         <v>-109</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>148</v>
       </c>
@@ -2504,7 +2624,7 @@
         <v>-108</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>149</v>
       </c>
@@ -2516,7 +2636,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>150</v>
       </c>
@@ -2528,7 +2648,7 @@
         <v>-106</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>151</v>
       </c>
@@ -2540,7 +2660,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>152</v>
       </c>
@@ -2552,7 +2672,7 @@
         <v>-104</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>153</v>
       </c>
@@ -2564,7 +2684,7 @@
         <v>-103</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>154</v>
       </c>
@@ -2576,7 +2696,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>155</v>
       </c>
@@ -2588,7 +2708,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>156</v>
       </c>
@@ -2600,7 +2720,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>157</v>
       </c>
@@ -2612,7 +2732,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>158</v>
       </c>
@@ -2624,7 +2744,7 @@
         <v>-98</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>159</v>
       </c>
@@ -2636,7 +2756,7 @@
         <v>-97</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>160</v>
       </c>
@@ -2648,7 +2768,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>161</v>
       </c>
@@ -2660,7 +2780,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>162</v>
       </c>
@@ -2672,7 +2792,7 @@
         <v>-94</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>163</v>
       </c>
@@ -2684,7 +2804,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>164</v>
       </c>
@@ -2696,7 +2816,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>165</v>
       </c>
@@ -2708,7 +2828,7 @@
         <v>-91</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>166</v>
       </c>
@@ -2720,7 +2840,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>167</v>
       </c>
@@ -2732,7 +2852,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>168</v>
       </c>
@@ -2744,7 +2864,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>169</v>
       </c>
@@ -2756,7 +2876,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>170</v>
       </c>
@@ -2768,7 +2888,7 @@
         <v>-86</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>171</v>
       </c>
@@ -2780,7 +2900,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>172</v>
       </c>
@@ -2792,7 +2912,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>173</v>
       </c>
@@ -2804,7 +2924,7 @@
         <v>-83</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>174</v>
       </c>
@@ -2816,7 +2936,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>175</v>
       </c>
@@ -2828,7 +2948,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>176</v>
       </c>
@@ -2840,7 +2960,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>177</v>
       </c>
@@ -2852,7 +2972,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>178</v>
       </c>
@@ -2864,7 +2984,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>179</v>
       </c>
@@ -2876,7 +2996,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>180</v>
       </c>
@@ -2888,7 +3008,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>181</v>
       </c>
@@ -2900,7 +3020,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>182</v>
       </c>
@@ -2912,7 +3032,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>183</v>
       </c>
@@ -2924,7 +3044,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>184</v>
       </c>
@@ -2936,7 +3056,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>185</v>
       </c>
@@ -2948,7 +3068,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>186</v>
       </c>
@@ -2960,7 +3080,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>187</v>
       </c>
@@ -2972,7 +3092,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>188</v>
       </c>
@@ -2984,7 +3104,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>189</v>
       </c>
@@ -2996,7 +3116,7 @@
         <v>-67</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>190</v>
       </c>
@@ -3008,7 +3128,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>191</v>
       </c>
@@ -3020,7 +3140,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>192</v>
       </c>
@@ -3032,7 +3152,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>193</v>
       </c>
@@ -3044,7 +3164,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>194</v>
       </c>
@@ -3056,7 +3176,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>195</v>
       </c>
@@ -3068,7 +3188,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>196</v>
       </c>
@@ -3080,7 +3200,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>197</v>
       </c>
@@ -3092,7 +3212,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>198</v>
       </c>
@@ -3104,7 +3224,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>199</v>
       </c>
@@ -3116,7 +3236,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>200</v>
       </c>
@@ -3128,7 +3248,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>201</v>
       </c>
@@ -3140,7 +3260,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>202</v>
       </c>
@@ -3152,7 +3272,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>203</v>
       </c>
@@ -3164,7 +3284,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>204</v>
       </c>
@@ -3176,7 +3296,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>205</v>
       </c>
@@ -3188,7 +3308,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>206</v>
       </c>
@@ -3200,7 +3320,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>207</v>
       </c>
@@ -3212,7 +3332,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>208</v>
       </c>
@@ -3224,7 +3344,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>209</v>
       </c>
@@ -3236,7 +3356,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>210</v>
       </c>
@@ -3248,7 +3368,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>211</v>
       </c>
@@ -3260,7 +3380,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>212</v>
       </c>
@@ -3272,7 +3392,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>213</v>
       </c>
@@ -3284,7 +3404,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>214</v>
       </c>
@@ -3296,7 +3416,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>215</v>
       </c>
@@ -3308,7 +3428,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>216</v>
       </c>
@@ -3320,7 +3440,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>217</v>
       </c>
@@ -3332,7 +3452,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>218</v>
       </c>
@@ -3344,7 +3464,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>219</v>
       </c>
@@ -3356,7 +3476,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>220</v>
       </c>
@@ -3368,7 +3488,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>221</v>
       </c>
@@ -3380,7 +3500,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>222</v>
       </c>
@@ -3392,7 +3512,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>223</v>
       </c>
@@ -3404,7 +3524,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>224</v>
       </c>
@@ -3416,7 +3536,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>225</v>
       </c>
@@ -3428,7 +3548,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>226</v>
       </c>
@@ -3440,7 +3560,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>227</v>
       </c>
@@ -3452,7 +3572,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>228</v>
       </c>
@@ -3464,7 +3584,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>229</v>
       </c>
@@ -3476,7 +3596,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>230</v>
       </c>
@@ -3488,7 +3608,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>231</v>
       </c>
@@ -3500,7 +3620,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>232</v>
       </c>
@@ -3512,7 +3632,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>233</v>
       </c>
@@ -3524,7 +3644,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>234</v>
       </c>
@@ -3536,7 +3656,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>235</v>
       </c>
@@ -3548,7 +3668,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>236</v>
       </c>
@@ -3560,7 +3680,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>237</v>
       </c>
@@ -3572,7 +3692,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>238</v>
       </c>
@@ -3584,7 +3704,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>239</v>
       </c>
@@ -3596,7 +3716,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>240</v>
       </c>
@@ -3608,7 +3728,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>241</v>
       </c>
@@ -3620,7 +3740,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>242</v>
       </c>
@@ -3632,7 +3752,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>243</v>
       </c>
@@ -3644,7 +3764,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>244</v>
       </c>
@@ -3656,7 +3776,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>245</v>
       </c>
@@ -3668,7 +3788,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>246</v>
       </c>
@@ -3680,7 +3800,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>247</v>
       </c>
@@ -3692,7 +3812,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>248</v>
       </c>
@@ -3704,7 +3824,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>249</v>
       </c>
@@ -3716,7 +3836,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>250</v>
       </c>
@@ -3728,7 +3848,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>251</v>
       </c>
@@ -3740,7 +3860,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>252</v>
       </c>
@@ -3752,7 +3872,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>253</v>
       </c>
@@ -3764,7 +3884,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>254</v>
       </c>
@@ -3776,7 +3896,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>255</v>
       </c>
@@ -3796,24 +3916,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
